--- a/pred_ohlcv/54_21/2019-10-29 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 HDAC ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-828199.6374339899</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-868952.2812339899</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-868971.2812339899</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-953155.4514006599</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-953132.2739006599</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-995425.1501006598</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-444309.5473339895</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-457511.1271339895</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 HDAC ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-828199.6374339899</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-868962.2812339899</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-868952.2812339899</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-868971.2812339899</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-953132.2739006599</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-966074.4670006599</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-996020.6021006599</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-995425.1501006598</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-995842.9704006598</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-996557.8654006599</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-985854.8668006598</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-934260.9433006598</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-940933.6199006598</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-939469.8159006598</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-857574.8462339897</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-755866.0566339897</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-512832.2745339895</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-444309.5473339895</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-457511.1271339895</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
